--- a/tl/S00100.MES.BIN.xlsx
+++ b/tl/S00100.MES.BIN.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA170746-6CFE-46B4-ADF4-6FB05D223EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6560F6EC-1FEA-4F54-BDE5-11CC724EF3EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4980" yWindow="4980" windowWidth="43200" windowHeight="23535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5325" yWindow="5325" windowWidth="43200" windowHeight="23535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S00100.MES.BIN" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="222">
   <si>
     <t>Status</t>
   </si>
@@ -32,19 +32,19 @@
     <t>Japanese</t>
   </si>
   <si>
-    <t>English (human)</t>
-  </si>
-  <si>
-    <t>English (GPT)</t>
-  </si>
-  <si>
-    <t>English (DeepL)</t>
-  </si>
-  <si>
-    <t>English (Google)</t>
-  </si>
-  <si>
-    <t>English (Bing)</t>
+    <t>Edited</t>
+  </si>
+  <si>
+    <t>Initial &amp; Notes</t>
+  </si>
+  <si>
+    <t>DeepL</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>Other</t>
   </si>
   <si>
     <t/>
@@ -53,36 +53,66 @@
     <t>1</t>
   </si>
   <si>
+    <t>...Well, from today on, my new life in this new room begins.</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
+    <t>I'll finish unpacking the moving boxes in a little while too.</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
+    <t>It's totally unreasonable for my parents to make me move in the middle of my first year in college.</t>
+  </si>
+  <si>
     <t>7</t>
   </si>
   <si>
+    <t>Oh well, I'll just get it over with quickly.</t>
+  </si>
+  <si>
     <t>9</t>
   </si>
   <si>
+    <t>Ding-dong.</t>
+  </si>
+  <si>
     <t>11</t>
   </si>
   <si>
+    <t>Someone's here.</t>
+  </si>
+  <si>
     <t>13</t>
   </si>
   <si>
+    <t>The room is a mess though.</t>
+  </si>
+  <si>
     <t>15</t>
   </si>
   <si>
     <t>Touya</t>
   </si>
   <si>
+    <t>Coming!</t>
+  </si>
+  <si>
     <t>17</t>
   </si>
   <si>
+    <t>I reply and head to the front door.</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
+    <t>Who could it be...?</t>
+  </si>
+  <si>
     <t>21</t>
   </si>
   <si>
@@ -92,554 +122,572 @@
     <t>Yuki</t>
   </si>
   <si>
+    <t>"Good morning, Touya-kun..."</t>
+  </si>
+  <si>
     <t>23</t>
   </si>
   <si>
+    <t>"Oh, Yuki."</t>
+  </si>
+  <si>
     <t>25</t>
   </si>
   <si>
+    <t>I have something I want to talk to you about... is now okay?</t>
+  </si>
+  <si>
     <t>27</t>
   </si>
   <si>
+    <t>"What? Oh, in that case..."</t>
+  </si>
+  <si>
     <t>29</t>
   </si>
   <si>
+    <t>Come in. It's a bit messy in here though.</t>
+  </si>
+  <si>
     <t>31</t>
   </si>
   <si>
+    <t>Okay.</t>
+  </si>
+  <si>
     <t>33</t>
   </si>
   <si>
+    <t>The girl smiling gently at me is Morikawa Yuki.</t>
+  </si>
+  <si>
     <t>35</t>
   </si>
   <si>
+    <t>... She's my girlfriend.</t>
+  </si>
+  <si>
     <t>37</t>
   </si>
   <si>
+    <t>In high school, we were in the same class and sat next to each other.</t>
+  </si>
+  <si>
     <t>39</t>
   </si>
   <si>
+    <t>We often showed each other our textbooks and homework and had idle conversations.</t>
+  </si>
+  <si>
     <t>41</t>
   </si>
   <si>
+    <t>I think the close proximity made us feel close to each other.</t>
+  </si>
+  <si>
     <t>43</t>
   </si>
   <si>
+    <t>Around that time, it seemed like Yuki was attending a training school for singers and would go home immediately after class ended.</t>
+  </si>
+  <si>
     <t>45</t>
   </si>
   <si>
+    <t>...She was a beautiful person at school, but her "difficulty in maintaining relationships" might have been the reason why male students at school kept their distance from her.</t>
+  </si>
+  <si>
     <t>47</t>
   </si>
   <si>
+    <t>As for how I managed to become lovers with such a girl...</t>
+  </si>
+  <si>
     <t>49</t>
   </si>
   <si>
+    <t>After school, I think I was on my way home.</t>
+  </si>
+  <si>
     <t>51</t>
   </si>
   <si>
+    <t>We happened to be together and were walking side by side when Yuki suddenly stopped.</t>
+  </si>
+  <si>
     <t>53</t>
   </si>
   <si>
+    <t>Is something wrong?</t>
+  </si>
+  <si>
     <t>55</t>
   </si>
   <si>
+    <t>It's nothing, but...</t>
+  </si>
+  <si>
     <t>57</t>
   </si>
   <si>
+    <t>Like we were on a road we've never walked on before, Yuki quietly looked around and spoke.</t>
+  </si>
+  <si>
     <t>59</t>
   </si>
   <si>
+    <t>It feels strange.</t>
+  </si>
+  <si>
     <t>61</t>
   </si>
   <si>
+    <t>What?</t>
+  </si>
+  <si>
     <t>63</t>
   </si>
   <si>
+    <t>I talk to you a lot, Fuji-kun, but this is the first time we're walking home together.</t>
+  </si>
+  <si>
     <t>65</t>
   </si>
   <si>
+    <t>It was a little surprising.</t>
+  </si>
+  <si>
     <t>67</t>
   </si>
   <si>
+    <t>We weren't that close at the time, and we didn't really talk that much.</t>
+  </si>
+  <si>
     <t>69</t>
   </si>
   <si>
+    <t>But, it's not like I wasn't aware of it either...</t>
+  </si>
+  <si>
+    <t>But, it's not like I wasn't aware of it...</t>
+  </si>
+  <si>
     <t>71</t>
   </si>
   <si>
+    <t>I also thought we were just a little bit like lovers, or something.</t>
+  </si>
+  <si>
+    <t>I also thought we were like lovers, or something, just a little.</t>
+  </si>
+  <si>
     <t>73</t>
   </si>
   <si>
+    <t>I meant it as a joke, like an extension of our usual conversation.</t>
+  </si>
+  <si>
     <t>75</t>
   </si>
   <si>
+    <t>But after that, the conversation stopped.</t>
+  </si>
+  <si>
     <t>77</t>
   </si>
   <si>
+    <t>I was looking at the tips of Yuki's fingers, which were wrapped around the handle of her school bag.</t>
+  </si>
+  <si>
+    <t>I was looking at the tips of Yuki's fingers, arranged on the handle of my school bag.</t>
+  </si>
+  <si>
     <t>79</t>
   </si>
   <si>
+    <t>They were beautiful, delicate fingers, I thought.</t>
+  </si>
+  <si>
+    <t>They were beautiful, I thought they were delicate fingers.</t>
+  </si>
+  <si>
     <t>81</t>
   </si>
   <si>
+    <t>At that moment, I noticed Yuki took a deep breath.</t>
+  </si>
+  <si>
+    <t>At that moment, I noticed Yuki took a deep breath, like she had made a big decision.</t>
+  </si>
+  <si>
     <t>83</t>
   </si>
   <si>
+    <t>She looked like she had made a big decision.</t>
+  </si>
+  <si>
     <t>85</t>
   </si>
   <si>
+    <t>A little bit...</t>
+  </si>
+  <si>
+    <t>I've liked you for a long time... -- The voice line says "chotto ne", so she's reciting Touya's "little bit" line.</t>
+  </si>
+  <si>
     <t>87</t>
   </si>
   <si>
+    <t>And then she said.</t>
+  </si>
+  <si>
+    <t>"And then, Yuki said."</t>
+  </si>
+  <si>
     <t>89</t>
   </si>
   <si>
+    <t>Fujii-kun, I've liked you for a long time now.</t>
+  </si>
+  <si>
+    <t>Fujii-kun, I've liked you for a while now.'"</t>
+  </si>
+  <si>
     <t>91</t>
   </si>
   <si>
+    <t>Um...</t>
+  </si>
+  <si>
     <t>93</t>
   </si>
   <si>
+    <t>That's all.</t>
+  </si>
+  <si>
     <t>95</t>
   </si>
   <si>
+    <t>She laughed awkwardly.</t>
+  </si>
+  <si>
     <t>97</t>
   </si>
   <si>
+    <t>To tell the truth, I had been quite interested in Yuki as well.</t>
+  </si>
+  <si>
     <t>99</t>
   </si>
   <si>
+    <t>So, I answered right away.</t>
+  </si>
+  <si>
     <t>101</t>
   </si>
   <si>
+    <t>I liked you too, but...</t>
+  </si>
+  <si>
     <t>103</t>
   </si>
   <si>
+    <t>After that, there were no more words.</t>
+  </si>
+  <si>
+    <t>After that, there are no more words.</t>
+  </si>
+  <si>
     <t>105</t>
   </si>
   <si>
+    <t>Again, for a little while, it was silent.</t>
+  </si>
+  <si>
+    <t>Again, for a little while, words are cut off.</t>
+  </si>
+  <si>
     <t>107</t>
   </si>
   <si>
+    <t>During times like this, using the past tense feels weird, doesn't it?</t>
+  </si>
+  <si>
     <t>109</t>
   </si>
   <si>
+    <t>Yuki said.</t>
+  </si>
+  <si>
     <t>111</t>
   </si>
   <si>
+    <t>Then, from here on out, let's use the present tense.</t>
+  </si>
+  <si>
     <t>113</t>
   </si>
   <si>
+    <t>When I answered, Yuki nodded slightly.</t>
+  </si>
+  <si>
+    <t>When I answered, Yuki nodded just a little bit.</t>
+  </si>
+  <si>
     <t>115</t>
   </si>
   <si>
+    <t>After that, the two of us got embarrassed.</t>
+  </si>
+  <si>
+    <t>Same but modified for past-tense since it's during a flashback</t>
+  </si>
+  <si>
     <t>117</t>
   </si>
   <si>
+    <t>I guess that made us become lovers.</t>
+  </si>
+  <si>
+    <t>That's how it was, we probably became lovers...</t>
+  </si>
+  <si>
     <t>119</t>
   </si>
   <si>
+    <t>Fufufu. What's wrong? How come you're quiet all of a sudden?</t>
+  </si>
+  <si>
+    <t>Fufufu. What's wrong? Suddenly so quiet?</t>
+  </si>
+  <si>
     <t>121</t>
   </si>
   <si>
+    <t>Huh? Oh, no...</t>
+  </si>
+  <si>
     <t>123</t>
   </si>
   <si>
+    <t>After graduating high school, Yuki and I enrolled in the same university.</t>
+  </si>
+  <si>
+    <t>After graduating high school, Yuki and I went to the same university.</t>
+  </si>
+  <si>
     <t>125</t>
   </si>
   <si>
+    <t>Our relationship is still going on now.</t>
+  </si>
+  <si>
     <t>127</t>
   </si>
   <si>
+    <t>Sometimes I think Yuki is the ideal partner.</t>
+  </si>
+  <si>
     <t>129</t>
   </si>
   <si>
+    <t>Of course she's cute, but it's also fun to be with her. Furthermore, she tries to be by my side even if I'm not thinking about wanting to be by hers.</t>
+  </si>
+  <si>
+    <t>Of course she's cute to look at, but it's fun to be with her, and furthermore, she tries to be by my side even if I'm not thinking about wanting to be by her side.</t>
+  </si>
+  <si>
     <t>131</t>
   </si>
   <si>
+    <t>I feel vaguely certain that she wants to be by my side, more than I want to be by hers...</t>
+  </si>
+  <si>
     <t>133</t>
   </si>
   <si>
+    <t>Oh, but more importantly, what's this about a conversation? ...all of a sudden?</t>
+  </si>
+  <si>
     <t>135</t>
   </si>
   <si>
+    <t>That's right.</t>
+  </si>
+  <si>
     <t>137</t>
   </si>
   <si>
+    <t>Even though we can see each other after university starts.</t>
+  </si>
+  <si>
+    <t>Even though we can see each other since starting university.</t>
+  </si>
+  <si>
     <t>139</t>
   </si>
   <si>
+    <t>Yeah... Um, well...</t>
+  </si>
+  <si>
     <t>141</t>
   </si>
   <si>
+    <t>...Um, I, well, I'm going to debut...</t>
+  </si>
+  <si>
     <t>143</t>
   </si>
   <si>
+    <t>Huh...?</t>
+  </si>
+  <si>
     <t>145</t>
   </si>
   <si>
+    <t>Do you know Eiji Ogata? Of Ogata Productions. He's the one who debuted Rina Ogata.</t>
+  </si>
+  <si>
     <t>147</t>
   </si>
   <si>
+    <t>Oh, yeah...</t>
+  </si>
+  <si>
     <t>149</t>
   </si>
   <si>
+    <t>From there, I've decided to debut under Mr. Ogata's production...</t>
+  </si>
+  <si>
     <t>151</t>
   </si>
   <si>
+    <t>Really...?</t>
+  </si>
+  <si>
     <t>153</t>
   </si>
   <si>
+    <t>Yeah...</t>
+  </si>
+  <si>
     <t>155</t>
   </si>
   <si>
+    <t>That's amazing! That's amazing, Yuki!!</t>
+  </si>
+  <si>
     <t>157</t>
   </si>
   <si>
+    <t>...but, Yuki doesn't seem as excited as me...</t>
+  </si>
+  <si>
+    <t>...but, Yuki, doesn't seem as excited as me...</t>
+  </si>
+  <si>
     <t>159</t>
   </si>
   <si>
+    <t>But you know... ...that's why, from now on, there might not be much time for us to be together...</t>
+  </si>
+  <si>
+    <t>But you see... ...so, from now on, there might not be much time for us to be together...</t>
+  </si>
+  <si>
     <t>161</t>
   </si>
   <si>
+    <t>Ah...</t>
+  </si>
+  <si>
     <t>163</t>
   </si>
   <si>
+    <t>So that's it...</t>
+  </si>
+  <si>
     <t>165</t>
   </si>
   <si>
+    <t>"My Yuki" is going to disappear?</t>
+  </si>
+  <si>
     <t>167</t>
   </si>
   <si>
+    <t>But, you have to do your best. ...after all, Yuki, you've been working hard for this...</t>
+  </si>
+  <si>
+    <t>But, we have to do our best. ...after all, Yuki has been working hard for this...</t>
+  </si>
+  <si>
     <t>169</t>
   </si>
   <si>
     <t>171</t>
   </si>
   <si>
+    <t>I'm not going to be completely lonely, but...</t>
+  </si>
+  <si>
     <t>173</t>
   </si>
   <si>
+    <t>but...</t>
+  </si>
+  <si>
     <t>175</t>
   </si>
   <si>
+    <t>But, do your best. I'll cheer you on.</t>
+  </si>
+  <si>
     <t>177</t>
   </si>
   <si>
+    <t>But...</t>
+  </si>
+  <si>
     <t>179</t>
   </si>
   <si>
+    <t>It's okay. ...it might be a little tough, but let's make our dreams come true together.</t>
+  </si>
+  <si>
     <t>181</t>
   </si>
   <si>
+    <t>I lightly stroke Yuki's hair.</t>
+  </si>
+  <si>
     <t>183</t>
   </si>
   <si>
+    <t>"Y-yeah!"</t>
+  </si>
+  <si>
+    <t>O-okay!</t>
+  </si>
+  <si>
     <t>185</t>
   </si>
   <si>
-    <t>...Well, from today on, my new life in this new room begins.</t>
-  </si>
-  <si>
-    <t>I'll finish unpacking the moving boxes in a little while too.</t>
-  </si>
-  <si>
-    <t>It's totally unreasonable for my parents to make me move in the middle of my first year in college.</t>
-  </si>
-  <si>
-    <t>Oh well, I'll just get it over with quickly.</t>
-  </si>
-  <si>
-    <t>Ding-dong.</t>
-  </si>
-  <si>
-    <t>Someone's here.</t>
-  </si>
-  <si>
-    <t>The room is a mess though.</t>
-  </si>
-  <si>
-    <t>Coming!</t>
-  </si>
-  <si>
-    <t>I reply and head to the front door.</t>
-  </si>
-  <si>
-    <t>Who could it be...?</t>
-  </si>
-  <si>
-    <t>"Good morning, Touya-kun..."</t>
-  </si>
-  <si>
-    <t>"Oh, Yuki."</t>
-  </si>
-  <si>
-    <t>I have something I want to talk to you about... is now okay?</t>
-  </si>
-  <si>
-    <t>"What? Oh, in that case..."</t>
-  </si>
-  <si>
-    <t>Come in. It's a bit messy in here though.</t>
-  </si>
-  <si>
-    <t>Okay.</t>
-  </si>
-  <si>
-    <t>The girl smiling gently at me is Morikawa Yuki.</t>
-  </si>
-  <si>
-    <t>... She's my girlfriend.</t>
-  </si>
-  <si>
-    <t>In high school, we were in the same class and sat next to each other.</t>
-  </si>
-  <si>
-    <t>We often showed each other our textbooks and homework and had idle conversations.</t>
-  </si>
-  <si>
-    <t>I think the close proximity made us feel close to each other.</t>
-  </si>
-  <si>
-    <t>Around that time, it seemed like Yuki was attending a training school for singers and would go home immediately after class ended.</t>
-  </si>
-  <si>
-    <t>...She was a beautiful person at school, but her "difficulty in maintaining relationships" might have been the reason why male students at school kept their distance from her.</t>
-  </si>
-  <si>
-    <t>After school, I think I was on my way home.</t>
-  </si>
-  <si>
-    <t>We happened to be together and were walking side by side when Yuki suddenly stopped.</t>
-  </si>
-  <si>
-    <t>Is something wrong?</t>
-  </si>
-  <si>
-    <t>It's nothing, but...</t>
-  </si>
-  <si>
-    <t>Like we were on a road we've never walked on before, Yuki quietly looked around and spoke.</t>
-  </si>
-  <si>
-    <t>It feels strange.</t>
-  </si>
-  <si>
-    <t>What?</t>
-  </si>
-  <si>
-    <t>I talk to you a lot, Fuji-kun, but this is the first time we're walking home together.</t>
-  </si>
-  <si>
-    <t>It was a little surprising.</t>
-  </si>
-  <si>
-    <t>We weren't that close at the time, and we didn't really talk that much.</t>
-  </si>
-  <si>
-    <t>But, it's not like I wasn't aware of it either...</t>
-  </si>
-  <si>
-    <t>I also thought we were just a little bit like lovers, or something.</t>
-  </si>
-  <si>
-    <t>I meant it as a joke, like an extension of our usual conversation.</t>
-  </si>
-  <si>
-    <t>But after that, the conversation stopped.</t>
-  </si>
-  <si>
-    <t>I was looking at the tips of Yuki's fingers, which were wrapped around the handle of her school bag.</t>
-  </si>
-  <si>
-    <t>They were beautiful, delicate fingers, I thought.</t>
-  </si>
-  <si>
-    <t>At that moment, I noticed Yuki took a deep breath.</t>
-  </si>
-  <si>
-    <t>She looked like she had made a big decision.</t>
-  </si>
-  <si>
-    <t>A little bit...</t>
-  </si>
-  <si>
-    <t>And then she said.</t>
-  </si>
-  <si>
-    <t>Fujii-kun, I've liked you for a long time now.</t>
-  </si>
-  <si>
-    <t>Um...</t>
-  </si>
-  <si>
-    <t>That's all.</t>
-  </si>
-  <si>
-    <t>She laughed awkwardly.</t>
-  </si>
-  <si>
-    <t>To tell the truth, I had been quite interested in Yuki as well.</t>
-  </si>
-  <si>
-    <t>So, I answered right away.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">I </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft GothicNeo"/>
-        <family val="2"/>
-      </rPr>
-      <t>liked</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft GothicNeo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> you too, but...</t>
-    </r>
-  </si>
-  <si>
-    <t>After that, there were no more words.</t>
-  </si>
-  <si>
-    <t>Again, for a little while, it was silent.</t>
-  </si>
-  <si>
-    <t>During times like this, using the past tense feels weird, doesn't it?</t>
-  </si>
-  <si>
-    <t>Yuki said.</t>
-  </si>
-  <si>
-    <t>Then, from here on out, let's use the present tense.</t>
-  </si>
-  <si>
-    <t>When I answered, Yuki nodded slightly.</t>
-  </si>
-  <si>
-    <t>After that, the two of us got embarrassed.</t>
-  </si>
-  <si>
-    <t>I guess that made us become lovers.</t>
-  </si>
-  <si>
-    <t>Fufufu. What's wrong? How come you're quiet all of a sudden?</t>
-  </si>
-  <si>
-    <t>Huh? Oh, no...</t>
-  </si>
-  <si>
-    <t>After graduating high school, Yuki and I enrolled in the same university.</t>
-  </si>
-  <si>
-    <t>Our relationship is still going on now.</t>
-  </si>
-  <si>
-    <t>Sometimes I think Yuki is the ideal partner.</t>
-  </si>
-  <si>
-    <t>Of course she's cute, but it's also fun to be with her. Furthermore, she tries to be by my side even if I'm not thinking about wanting to be by hers.</t>
-  </si>
-  <si>
-    <t>I feel vaguely certain that she wants to be by my side, more than I want to be by hers...</t>
-  </si>
-  <si>
-    <t>Oh, but more importantly, what's this about a conversation? ...all of a sudden?</t>
-  </si>
-  <si>
-    <t>That's right.</t>
-  </si>
-  <si>
-    <t>Even though we can see each other after university starts.</t>
-  </si>
-  <si>
-    <t>Yeah... Um, well...</t>
-  </si>
-  <si>
-    <t>...Um, I, well, I'm going to debut...</t>
-  </si>
-  <si>
-    <t>Huh...?</t>
-  </si>
-  <si>
-    <t>Do you know Eiji Ogata? Of Ogata Productions. He's the one who debuted Rina Ogata.</t>
-  </si>
-  <si>
-    <t>Oh, yeah...</t>
-  </si>
-  <si>
-    <t>From there, I've decided to debut under Mr. Ogata's production...</t>
-  </si>
-  <si>
-    <t>Really...?</t>
-  </si>
-  <si>
-    <t>Yeah...</t>
-  </si>
-  <si>
-    <t>That's amazing! That's amazing, Yuki!!</t>
-  </si>
-  <si>
-    <t>...but, Yuki doesn't seem as excited as me...</t>
-  </si>
-  <si>
-    <t>But you know... ...that's why, from now on, there might not be much time for us to be together...</t>
-  </si>
-  <si>
-    <t>Ah...</t>
-  </si>
-  <si>
-    <t>So that's it...</t>
-  </si>
-  <si>
-    <t>"My Yuki" is going to disappear?</t>
-  </si>
-  <si>
-    <t>But, you have to do your best. ...after all, Yuki, you've been working hard for this...</t>
-  </si>
-  <si>
-    <t>I'm not going to be completely lonely, but...</t>
-  </si>
-  <si>
-    <t>but...</t>
-  </si>
-  <si>
-    <t>But, do your best. I'll cheer you on.</t>
-  </si>
-  <si>
-    <t>But...</t>
-  </si>
-  <si>
-    <t>It's okay. ...it might be a little tough, but let's make our dreams come true together.</t>
-  </si>
-  <si>
-    <t>I lightly stroke Yuki's hair.</t>
-  </si>
-  <si>
     <t>And then, she smiled.</t>
   </si>
   <si>
-    <t>As for how I managed to become lovers with such a girl...</t>
-  </si>
-  <si>
-    <t>"Y-yeah!"</t>
+    <t>And then, Yuki smiled.</t>
+  </si>
+  <si>
+    <t>187</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -663,13 +711,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft GothicNeo"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -699,7 +740,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -722,43 +763,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1073,11 +1086,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J96"/>
+  <dimension ref="A1:J95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1132,21 +1143,31 @@
       <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F2" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>10</v>
@@ -1154,21 +1175,31 @@
       <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F3" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>10</v>
@@ -1176,21 +1207,31 @@
       <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F4" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>10</v>
@@ -1198,21 +1239,31 @@
       <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F5" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>10</v>
@@ -1220,21 +1271,31 @@
       <c r="D6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F6" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>10</v>
@@ -1242,21 +1303,31 @@
       <c r="D7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F7" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>10</v>
@@ -1264,43 +1335,63 @@
       <c r="D8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F8" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F9" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>10</v>
@@ -1308,21 +1399,31 @@
       <c r="D10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F10" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>10</v>
@@ -1330,153 +1431,223 @@
       <c r="D11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F11" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F12" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F13" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F14" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F15" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F16" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F17" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>10</v>
@@ -1484,21 +1655,31 @@
       <c r="D18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F18" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>10</v>
@@ -1506,21 +1687,31 @@
       <c r="D19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F19" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
+        <v>49</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>10</v>
@@ -1528,21 +1719,31 @@
       <c r="D20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F20" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
+        <v>51</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>10</v>
@@ -1550,21 +1751,31 @@
       <c r="D21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F21" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>10</v>
@@ -1572,21 +1783,31 @@
       <c r="D22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F22" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>10</v>
@@ -1594,21 +1815,31 @@
       <c r="D23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="2"/>
+      <c r="E23" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F23" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
+        <v>57</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>10</v>
@@ -1616,21 +1847,31 @@
       <c r="D24" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="2"/>
+      <c r="E24" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F24" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
+        <v>59</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>10</v>
@@ -1638,21 +1879,31 @@
       <c r="D25" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="2"/>
+      <c r="E25" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F25" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
+        <v>61</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>10</v>
@@ -1660,21 +1911,31 @@
       <c r="D26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="2"/>
+      <c r="E26" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F26" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>10</v>
@@ -1682,175 +1943,255 @@
       <c r="D27" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="2"/>
+      <c r="E27" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F27" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F30" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
+        <v>71</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F31" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
+        <v>73</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E32" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F32" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
+        <v>75</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E33" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F33" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F34" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
+        <v>79</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>10</v>
@@ -1858,21 +2199,31 @@
       <c r="D35" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="2"/>
+      <c r="E35" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F35" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
+        <v>81</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>10</v>
@@ -1880,65 +2231,95 @@
       <c r="D36" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="2"/>
+      <c r="E36" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F36" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
+        <v>83</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E37" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F37" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
+        <v>86</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F38" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
+        <v>89</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>10</v>
@@ -1946,21 +2327,31 @@
       <c r="D39" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="2"/>
+      <c r="E39" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F39" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
+        <v>91</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>10</v>
@@ -1968,21 +2359,31 @@
       <c r="D40" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E40" s="2"/>
+      <c r="E40" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F40" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
+        <v>93</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>10</v>
@@ -1990,21 +2391,31 @@
       <c r="D41" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E41" s="2"/>
+      <c r="E41" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F41" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
+        <v>96</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>10</v>
@@ -2012,21 +2423,31 @@
       <c r="D42" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="2"/>
+      <c r="E42" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F42" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
+        <v>99</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>10</v>
@@ -2034,153 +2455,223 @@
       <c r="D43" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="2"/>
+      <c r="E43" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F43" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
+        <v>102</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E44" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F44" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
+        <v>104</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E45" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F45" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
+        <v>107</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E46" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F46" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
+        <v>110</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>59</v>
+        <v>112</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E47" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F47" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
+        <v>113</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E48" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F48" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
+        <v>115</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E49" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F49" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
+        <v>117</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>10</v>
@@ -2188,21 +2679,31 @@
       <c r="D50" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="2"/>
+      <c r="E50" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F50" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
+        <v>119</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>10</v>
@@ -2210,65 +2711,95 @@
       <c r="D51" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E51" s="2"/>
+      <c r="E51" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F51" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
+        <v>121</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>64</v>
+        <v>122</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E52" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F52" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
+        <v>123</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F53" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
+        <v>125</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>10</v>
@@ -2276,109 +2807,159 @@
       <c r="D54" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="2"/>
+      <c r="E54" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F54" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
+        <v>128</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>67</v>
+        <v>130</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E55" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F55" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
+        <v>131</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>68</v>
+        <v>132</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E56" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F56" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
+        <v>133</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>69</v>
+        <v>134</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E57" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F57" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
+        <v>135</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>70</v>
+        <v>136</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E58" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F58" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
+        <v>137</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>10</v>
@@ -2386,21 +2967,31 @@
       <c r="D59" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E59" s="2"/>
+      <c r="E59" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F59" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
+        <v>140</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>72</v>
+        <v>142</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>10</v>
@@ -2408,87 +2999,127 @@
       <c r="D60" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E60" s="2"/>
+      <c r="E60" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F60" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
+        <v>143</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E61" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F61" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
+        <v>146</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E62" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F62" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
+        <v>149</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E63" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F63" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
+        <v>151</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>76</v>
+        <v>153</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>10</v>
@@ -2496,21 +3127,31 @@
       <c r="D64" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E64" s="2"/>
+      <c r="E64" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F64" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
+        <v>154</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>77</v>
+        <v>155</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>10</v>
@@ -2518,21 +3159,31 @@
       <c r="D65" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E65" s="2"/>
+      <c r="E65" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F65" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
+        <v>156</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>10</v>
@@ -2540,21 +3191,31 @@
       <c r="D66" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="2"/>
+      <c r="E66" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F66" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
+        <v>158</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>10</v>
@@ -2562,65 +3223,95 @@
       <c r="D67" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E67" s="2"/>
+      <c r="E67" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F67" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
+        <v>161</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>80</v>
+        <v>162</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E68" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F68" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
-      <c r="J68" s="3"/>
+        <v>163</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>81</v>
+        <v>164</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E69" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F69" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
-      <c r="J69" s="3"/>
+        <v>165</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>82</v>
+        <v>166</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>10</v>
@@ -2628,307 +3319,447 @@
       <c r="D70" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E70" s="2"/>
+      <c r="E70" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F70" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-      <c r="I70" s="3"/>
-      <c r="J70" s="3"/>
+        <v>167</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>83</v>
+        <v>169</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E71" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F71" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
-      <c r="J71" s="3"/>
+        <v>170</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>84</v>
+        <v>171</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E72" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F72" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
-      <c r="I72" s="3"/>
-      <c r="J72" s="3"/>
+        <v>172</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>85</v>
+        <v>173</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E73" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F73" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
-      <c r="J73" s="3"/>
+        <v>174</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>86</v>
+        <v>175</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E74" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F74" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
+        <v>176</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>87</v>
+        <v>177</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E75" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F75" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
-      <c r="J75" s="3"/>
+        <v>178</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>88</v>
+        <v>179</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E76" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F76" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
-      <c r="I76" s="3"/>
-      <c r="J76" s="3"/>
+      <c r="G76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>89</v>
+        <v>181</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E77" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F77" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
-      <c r="J77" s="3"/>
+        <v>182</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>90</v>
+        <v>183</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E78" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F78" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
-      <c r="I78" s="3"/>
-      <c r="J78" s="3"/>
+        <v>184</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>91</v>
+        <v>185</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E79" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F79" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
-      <c r="J79" s="3"/>
+        <v>186</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>92</v>
+        <v>187</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E80" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F80" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="G80" s="3"/>
-      <c r="H80" s="3"/>
-      <c r="I80" s="3"/>
-      <c r="J80" s="3"/>
+        <v>188</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>93</v>
+        <v>190</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E81" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F81" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="G81" s="3"/>
-      <c r="H81" s="3"/>
-      <c r="I81" s="3"/>
-      <c r="J81" s="3"/>
+        <v>191</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>94</v>
+        <v>193</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E82" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F82" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="G82" s="3"/>
-      <c r="H82" s="3"/>
-      <c r="I82" s="3"/>
-      <c r="J82" s="3"/>
+        <v>194</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>95</v>
+        <v>195</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E83" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F83" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
-      <c r="I83" s="3"/>
-      <c r="J83" s="3"/>
+        <v>196</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>96</v>
+        <v>197</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>10</v>
@@ -2936,87 +3767,127 @@
       <c r="D84" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E84" s="2"/>
+      <c r="E84" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F84" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
-      <c r="I84" s="3"/>
-      <c r="J84" s="3"/>
+        <v>198</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>97</v>
+        <v>199</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E85" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F85" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="G85" s="3"/>
-      <c r="H85" s="3"/>
-      <c r="I85" s="3"/>
-      <c r="J85" s="3"/>
+        <v>200</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J85" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>98</v>
+        <v>202</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E86" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F86" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G86" s="3"/>
-      <c r="H86" s="3"/>
-      <c r="I86" s="3"/>
-      <c r="J86" s="3"/>
+        <v>184</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>99</v>
+        <v>203</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E87" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F87" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="G87" s="3"/>
-      <c r="H87" s="3"/>
-      <c r="I87" s="3"/>
-      <c r="J87" s="3"/>
+        <v>204</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J87" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>100</v>
+        <v>205</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>10</v>
@@ -3024,152 +3895,248 @@
       <c r="D88" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E88" s="2"/>
+      <c r="E88" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F88" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="G88" s="3"/>
-      <c r="H88" s="3"/>
-      <c r="I88" s="3"/>
-      <c r="J88" s="3"/>
+        <v>206</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>101</v>
+        <v>207</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E89" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F89" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="G89" s="3"/>
-      <c r="H89" s="3"/>
-      <c r="I89" s="3"/>
-      <c r="J89" s="3"/>
+        <v>208</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>102</v>
+        <v>209</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E90" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F90" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="G90" s="3"/>
-      <c r="H90" s="3"/>
-      <c r="I90" s="3"/>
-      <c r="J90" s="3"/>
+        <v>210</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J90" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>103</v>
+        <v>211</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E91" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F91" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="G91" s="3"/>
-      <c r="H91" s="3"/>
-      <c r="I91" s="3"/>
-      <c r="J91" s="3"/>
+        <v>212</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>104</v>
+        <v>213</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E92" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F92" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="G92" s="3"/>
-      <c r="H92" s="3"/>
-      <c r="I92" s="3"/>
-      <c r="J92" s="3"/>
+        <v>214</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J92" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>105</v>
+        <v>215</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E93" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F93" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="G93" s="3"/>
-      <c r="H93" s="3"/>
-      <c r="I93" s="3"/>
-      <c r="J93" s="3"/>
+        <v>216</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J93" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>106</v>
+        <v>218</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E94" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F94" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="G94" s="3"/>
-      <c r="H94" s="3"/>
-      <c r="I94" s="3"/>
-      <c r="J94" s="3"/>
+        <v>219</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F95" s="2"/>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F96" s="2"/>
+      <c r="A95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J95" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tl/S00100.MES.BIN.xlsx
+++ b/tl/S00100.MES.BIN.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4A3C16-708C-47E5-8C1E-4BFFE0779A42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19512109-5D7D-438F-9DBC-D5D85CA45056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="11310" windowWidth="48240" windowHeight="19545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="220">
   <si>
     <t>Status</t>
   </si>
@@ -675,15 +675,6 @@
   </si>
   <si>
     <t>And then, Yuki smiled.</t>
-  </si>
-  <si>
-    <t>187</t>
-  </si>
-  <si>
-    <t>189</t>
-  </si>
-  <si>
-    <t>191</t>
   </si>
 </sst>
 </file>
@@ -1103,7 +1094,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J97"/>
+  <dimension ref="A1:J94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1987,10 +1978,10 @@
         <v>65</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>9</v>
@@ -2019,10 +2010,10 @@
         <v>67</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>9</v>
@@ -2051,10 +2042,10 @@
         <v>69</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>9</v>
@@ -2115,10 +2106,10 @@
         <v>73</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>9</v>
@@ -2179,10 +2170,10 @@
         <v>77</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>9</v>
@@ -2211,10 +2202,10 @@
         <v>79</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>9</v>
@@ -2275,10 +2266,10 @@
         <v>84</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>9</v>
@@ -2339,10 +2330,10 @@
         <v>89</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>9</v>
@@ -2499,10 +2490,10 @@
         <v>102</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>9</v>
@@ -2595,10 +2586,10 @@
         <v>111</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>9</v>
@@ -2659,10 +2650,10 @@
         <v>115</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>9</v>
@@ -2691,10 +2682,10 @@
         <v>117</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>9</v>
@@ -2755,10 +2746,10 @@
         <v>121</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>9</v>
@@ -2819,10 +2810,10 @@
         <v>126</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>9</v>
@@ -2851,10 +2842,10 @@
         <v>129</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>9</v>
@@ -2915,10 +2906,10 @@
         <v>133</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>9</v>
@@ -2979,10 +2970,10 @@
         <v>138</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>9</v>
@@ -3043,10 +3034,10 @@
         <v>144</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>9</v>
@@ -3075,10 +3066,10 @@
         <v>147</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>9</v>
@@ -3107,10 +3098,10 @@
         <v>149</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>9</v>
@@ -3139,10 +3130,10 @@
         <v>152</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>9</v>
@@ -3267,10 +3258,10 @@
         <v>161</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>9</v>
@@ -3363,10 +3354,10 @@
         <v>168</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>9</v>
@@ -3395,10 +3386,10 @@
         <v>170</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>9</v>
@@ -3427,10 +3418,10 @@
         <v>172</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>9</v>
@@ -3491,10 +3482,10 @@
         <v>176</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>9</v>
@@ -3523,10 +3514,10 @@
         <v>178</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>9</v>
@@ -3555,10 +3546,10 @@
         <v>180</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>9</v>
@@ -3587,10 +3578,10 @@
         <v>182</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>9</v>
@@ -3619,10 +3610,10 @@
         <v>184</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>9</v>
@@ -3651,10 +3642,10 @@
         <v>186</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>9</v>
@@ -3779,10 +3770,10 @@
         <v>196</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>9</v>
@@ -3843,10 +3834,10 @@
         <v>201</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>9</v>
@@ -3907,10 +3898,10 @@
         <v>204</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>9</v>
@@ -3939,10 +3930,10 @@
         <v>206</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>9</v>
@@ -3971,10 +3962,10 @@
         <v>208</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>9</v>
@@ -4003,10 +3994,10 @@
         <v>210</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>9</v>
@@ -4035,10 +4026,10 @@
         <v>212</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>9</v>
@@ -4099,10 +4090,10 @@
         <v>217</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>9</v>
@@ -4120,102 +4111,6 @@
         <v>9</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F95" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G95" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H95" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I95" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J95" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G96" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H96" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I96" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J96" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E97" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F97" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G97" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H97" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I97" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J97" s="5" t="s">
         <v>9</v>
       </c>
     </row>

--- a/tl/S00100.MES.BIN.xlsx
+++ b/tl/S00100.MES.BIN.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19512109-5D7D-438F-9DBC-D5D85CA45056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C0BB25-1C0E-42DB-8DB7-61E31543BE72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="11310" windowWidth="48240" windowHeight="19545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1530" yWindow="18150" windowWidth="55185" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S00100.MES.BIN" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="282">
   <si>
     <t>Status</t>
   </si>
@@ -50,30 +50,45 @@
     <t>1</t>
   </si>
   <si>
+    <t>…Starting from today, my new life in this new room begins.</t>
+  </si>
+  <si>
     <t>...Well, from today on, my new life in this new room begins.</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
+    <t>I should be able to finish tidying up the unpacked boxes from the move soon.</t>
+  </si>
+  <si>
     <t>I'll finish unpacking the moving boxes in a little while too.</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
+    <t>It's totally unreasonable that I have to move during my first year of college in the autumn just because of my parents' whim.</t>
+  </si>
+  <si>
     <t>It's totally unreasonable for my parents to make me move in the middle of my first year in college.</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
+    <t>Oh well, let's just get it over with as soon as possible.</t>
+  </si>
+  <si>
     <t>Oh well, I'll just get it over with quickly.</t>
   </si>
   <si>
     <t>9</t>
   </si>
   <si>
+    <t>Ding---dong.</t>
+  </si>
+  <si>
     <t>Ding-dong.</t>
   </si>
   <si>
@@ -86,6 +101,9 @@
     <t>13</t>
   </si>
   <si>
+    <t>My room is a total mess, though.</t>
+  </si>
+  <si>
     <t>The room is a mess though.</t>
   </si>
   <si>
@@ -101,12 +119,18 @@
     <t>17</t>
   </si>
   <si>
+    <t>I reply and head towards the front door.</t>
+  </si>
+  <si>
     <t>I reply and head to the front door.</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
+    <t>Who could it be…?</t>
+  </si>
+  <si>
     <t>Who could it be...?</t>
   </si>
   <si>
@@ -119,30 +143,45 @@
     <t>Yuki</t>
   </si>
   <si>
+    <t>Good morning, Touya-kun…</t>
+  </si>
+  <si>
     <t>"Good morning, Touya-kun..."</t>
   </si>
   <si>
     <t>23</t>
   </si>
   <si>
+    <t>Oh, Yuki.</t>
+  </si>
+  <si>
     <t>"Oh, Yuki."</t>
   </si>
   <si>
     <t>25</t>
   </si>
   <si>
+    <t>Um... I have something I want to talk to you about... Is now okay?</t>
+  </si>
+  <si>
     <t>I have something I want to talk to you about... is now okay?</t>
   </si>
   <si>
     <t>27</t>
   </si>
   <si>
+    <t>Eh? Ah, sure…</t>
+  </si>
+  <si>
     <t>"What? Oh, in that case..."</t>
   </si>
   <si>
     <t>29</t>
   </si>
   <si>
+    <t>Come in. …It's a mess, though.</t>
+  </si>
+  <si>
     <t>Come in. It's a bit messy in here though.</t>
   </si>
   <si>
@@ -155,15 +194,24 @@
     <t>33</t>
   </si>
   <si>
+    <t>The girl smiling gently at me is Yuki Morikawa.</t>
+  </si>
+  <si>
     <t>The girl smiling gently at me is Morikawa Yuki.</t>
   </si>
   <si>
     <t>35</t>
   </si>
   <si>
+    <t>…She's my girlfriend.</t>
+  </si>
+  <si>
     <t>... She's my girlfriend.</t>
   </si>
   <si>
+    <t>Add "she's"</t>
+  </si>
+  <si>
     <t>37</t>
   </si>
   <si>
@@ -173,78 +221,120 @@
     <t>39</t>
   </si>
   <si>
+    <t>We often showed each other our textbooks and homework, and talked about random things together.</t>
+  </si>
+  <si>
     <t>We often showed each other our textbooks and homework and had idle conversations.</t>
   </si>
   <si>
     <t>41</t>
   </si>
   <si>
+    <t>I think that close physical distance made us feel close to each other's hearts.</t>
+  </si>
+  <si>
     <t>I think the close proximity made us feel close to each other.</t>
   </si>
   <si>
     <t>43</t>
   </si>
   <si>
+    <t>Around that time, Yuki was attending singing school, and would go home immediately after classes ended.</t>
+  </si>
+  <si>
     <t>Around that time, it seemed like Yuki was attending a training school for singers and would go home immediately after class ended.</t>
   </si>
   <si>
+    <t>Drop "it seemed"</t>
+  </si>
+  <si>
     <t>45</t>
   </si>
   <si>
+    <t>…She was a beautiful girl even within in the school, but her 'poor social skills' kept the boys in school from making advances towards her.</t>
+  </si>
+  <si>
     <t>...She was a beautiful person at school, but her "difficulty in maintaining relationships" might have been the reason why male students at school kept their distance from her.</t>
   </si>
   <si>
     <t>47</t>
   </si>
   <si>
+    <t>As for why she and I became lovers…</t>
+  </si>
+  <si>
     <t>As for how I managed to become lovers with such a girl...</t>
   </si>
   <si>
     <t>49</t>
   </si>
   <si>
+    <t>I think it was on the way home from school.</t>
+  </si>
+  <si>
     <t>After school, I think I was on my way home.</t>
   </si>
   <si>
     <t>51</t>
   </si>
   <si>
+    <t>By chance, we happened to be walking together, side-by-side, when Yuki suddenly stopped.</t>
+  </si>
+  <si>
     <t>We happened to be together and were walking side by side when Yuki suddenly stopped.</t>
   </si>
   <si>
     <t>53</t>
   </si>
   <si>
+    <t>What's wrong?</t>
+  </si>
+  <si>
     <t>Is something wrong?</t>
   </si>
   <si>
     <t>55</t>
   </si>
   <si>
+    <t>It's nothing, but…</t>
+  </si>
+  <si>
     <t>It's nothing, but...</t>
   </si>
   <si>
     <t>57</t>
   </si>
   <si>
+    <t>Yuki looked around the area like she was seeing it for the first time, and said softly,</t>
+  </si>
+  <si>
     <t>Like we were on a road we've never walked on before, Yuki quietly looked around and spoke.</t>
   </si>
   <si>
     <t>59</t>
   </si>
   <si>
+    <t>It feels strange, doesn't it?</t>
+  </si>
+  <si>
     <t>It feels strange.</t>
   </si>
   <si>
     <t>61</t>
   </si>
   <si>
+    <t>Huh?</t>
+  </si>
+  <si>
     <t>What?</t>
   </si>
   <si>
     <t>63</t>
   </si>
   <si>
+    <t>I talk to you a lot, Fujii-kun, but this is the first time we're walking home together.</t>
+  </si>
+  <si>
     <t>I talk to you a lot, Fuji-kun, but this is the first time we're walking home together.</t>
   </si>
   <si>
@@ -257,102 +347,114 @@
     <t>67</t>
   </si>
   <si>
+    <t>At that time, we weren't that close yet, and we didn't talk as much as we were just friendly with each other.</t>
+  </si>
+  <si>
     <t>We weren't that close at the time, and we didn't really talk that much.</t>
   </si>
   <si>
     <t>69</t>
   </si>
   <si>
+    <t>But, it wasn't like I was completely unaware of her….</t>
+  </si>
+  <si>
     <t>But, it's not like I wasn't aware of it either...</t>
   </si>
   <si>
-    <t>But, it's not like I wasn't aware of it...</t>
-  </si>
-  <si>
     <t>71</t>
   </si>
   <si>
+    <t>I also thought it felt as if we were a bit like lovers, or something.</t>
+  </si>
+  <si>
     <t>I also thought we were just a little bit like lovers, or something.</t>
   </si>
   <si>
-    <t>I also thought we were like lovers, or something, just a little.</t>
-  </si>
-  <si>
     <t>73</t>
   </si>
   <si>
+    <t>I meant it as a joke, as an extension of our usual conversation.</t>
+  </si>
+  <si>
     <t>I meant it as a joke, like an extension of our usual conversation.</t>
   </si>
   <si>
     <t>75</t>
   </si>
   <si>
+    <t>But after that, the conversation came to a halt.</t>
+  </si>
+  <si>
     <t>But after that, the conversation stopped.</t>
   </si>
   <si>
     <t>77</t>
   </si>
   <si>
+    <t>I was looking at Yuki's fingertips, which were aligned with the handle of her school bag.</t>
+  </si>
+  <si>
     <t>I was looking at the tips of Yuki's fingers, which were wrapped around the handle of her school bag.</t>
   </si>
   <si>
-    <t>I was looking at the tips of Yuki's fingers, arranged on the handle of my school bag.</t>
-  </si>
-  <si>
     <t>79</t>
   </si>
   <si>
+    <t>They were beautiful, slender fingers, I thought to myself.</t>
+  </si>
+  <si>
     <t>They were beautiful, delicate fingers, I thought.</t>
   </si>
   <si>
-    <t>They were beautiful, I thought they were delicate fingers.</t>
-  </si>
-  <si>
     <t>81</t>
   </si>
   <si>
+    <t>At that moment, I noticed Yuki suddenly took a deep breath.</t>
+  </si>
+  <si>
     <t>At that moment, I noticed Yuki took a deep breath.</t>
   </si>
   <si>
-    <t>At that moment, I noticed Yuki took a deep breath, like she had made a big decision.</t>
-  </si>
-  <si>
     <t>83</t>
   </si>
   <si>
+    <t>As if she had just made an important decision.</t>
+  </si>
+  <si>
     <t>She looked like she had made a big decision.</t>
   </si>
   <si>
     <t>85</t>
   </si>
   <si>
+    <t>You know, all this time…</t>
+  </si>
+  <si>
     <t>A little bit...</t>
   </si>
   <si>
-    <t>I've liked you for a long time... -- The voice line says "chotto ne", so she's reciting Touya's "little bit" line.</t>
-  </si>
-  <si>
     <t>87</t>
   </si>
   <si>
+    <t>And then, Yuki said,</t>
+  </si>
+  <si>
     <t>And then she said.</t>
   </si>
   <si>
-    <t>"And then, Yuki said."</t>
-  </si>
-  <si>
     <t>89</t>
   </si>
   <si>
     <t>Fujii-kun, I've liked you for a long time now.</t>
   </si>
   <si>
-    <t>Fujii-kun, I've liked you for a while now.'"</t>
-  </si>
-  <si>
     <t>91</t>
   </si>
   <si>
+    <t>Um…</t>
+  </si>
+  <si>
     <t>Um...</t>
   </si>
   <si>
@@ -365,45 +467,57 @@
     <t>95</t>
   </si>
   <si>
+    <t>She smiled awkwardly.</t>
+  </si>
+  <si>
     <t>She laughed awkwardly.</t>
   </si>
   <si>
     <t>97</t>
   </si>
   <si>
+    <t>To be honest, I had been quite interested in Yuki as well.</t>
+  </si>
+  <si>
     <t>To tell the truth, I had been quite interested in Yuki as well.</t>
   </si>
   <si>
     <t>99</t>
   </si>
   <si>
+    <t>That's why I answered right away.</t>
+  </si>
+  <si>
     <t>So, I answered right away.</t>
   </si>
   <si>
     <t>101</t>
   </si>
   <si>
+    <t>I liked you too, though…</t>
+  </si>
+  <si>
     <t>I liked you too, but...</t>
   </si>
   <si>
     <t>103</t>
   </si>
   <si>
+    <t>I couldn't find any words to say after that.</t>
+  </si>
+  <si>
     <t>After that, there were no more words.</t>
   </si>
   <si>
-    <t>After that, there are no more words.</t>
-  </si>
-  <si>
     <t>105</t>
   </si>
   <si>
+    <t>Again, the conversation stopped for a while.</t>
+  </si>
+  <si>
     <t>Again, for a little while, it was silent.</t>
   </si>
   <si>
-    <t>Again, for a little while, words are cut off.</t>
-  </si>
-  <si>
     <t>107</t>
   </si>
   <si>
@@ -413,40 +527,52 @@
     <t>109</t>
   </si>
   <si>
+    <t>Yuki said that.</t>
+  </si>
+  <si>
     <t>Yuki said.</t>
   </si>
   <si>
     <t>111</t>
   </si>
   <si>
+    <t>Then, let's use the present tense from here on out.</t>
+  </si>
+  <si>
     <t>Then, from here on out, let's use the present tense.</t>
   </si>
   <si>
     <t>113</t>
   </si>
   <si>
+    <t>Yuki nodded slightly in response to my answer.</t>
+  </si>
+  <si>
     <t>When I answered, Yuki nodded slightly.</t>
   </si>
   <si>
-    <t>When I answered, Yuki nodded just a little bit.</t>
-  </si>
-  <si>
     <t>115</t>
   </si>
   <si>
+    <t>After that, we both blushed.</t>
+  </si>
+  <si>
     <t>After that, the two of us got embarrassed.</t>
   </si>
   <si>
-    <t>Same but modified for past-tense since it's during a flashback</t>
+    <t>Change to blushed</t>
   </si>
   <si>
     <t>117</t>
   </si>
   <si>
+    <t>And like that, we probably became lovers….</t>
+  </si>
+  <si>
     <t>I guess that made us become lovers.</t>
   </si>
   <si>
-    <t>That's how it was, we probably became lovers...</t>
+    <t>This line is so hard to translate! The literal translation is very awkward because of 多分</t>
   </si>
   <si>
     <t>119</t>
@@ -455,24 +581,24 @@
     <t>Fufufu. What's wrong? How come you're quiet all of a sudden?</t>
   </si>
   <si>
-    <t>Fufufu. What's wrong? Suddenly so quiet?</t>
-  </si>
-  <si>
     <t>121</t>
   </si>
   <si>
+    <t>Eh? Ahh, it's nothing…</t>
+  </si>
+  <si>
     <t>Huh? Oh, no...</t>
   </si>
   <si>
     <t>123</t>
   </si>
   <si>
+    <t>After graduating from high school, Yuki and I enrolled in the same university.</t>
+  </si>
+  <si>
     <t>After graduating high school, Yuki and I enrolled in the same university.</t>
   </si>
   <si>
-    <t>After graduating high school, Yuki and I went to the same university.</t>
-  </si>
-  <si>
     <t>125</t>
   </si>
   <si>
@@ -482,27 +608,36 @@
     <t>127</t>
   </si>
   <si>
+    <t>Sometimes, I think Yuki is the ideal partner.</t>
+  </si>
+  <si>
     <t>Sometimes I think Yuki is the ideal partner.</t>
   </si>
   <si>
     <t>129</t>
   </si>
   <si>
+    <t>Of course she's cute, but there's something about her that makes her fun to be around, and she always tries to be by my side.</t>
+  </si>
+  <si>
     <t>Of course she's cute, but it's also fun to be with her. Furthermore, she tries to be by my side even if I'm not thinking about wanting to be by hers.</t>
   </si>
   <si>
-    <t>Of course she's cute to look at, but it's fun to be with her, and furthermore, she tries to be by my side even if I'm not thinking about wanting to be by her side.</t>
-  </si>
-  <si>
     <t>131</t>
   </si>
   <si>
+    <t>I feel like, even more than me wanting to be by her side, she wants to be by mine, and even though it's just a feeling, I'm certain of it….</t>
+  </si>
+  <si>
     <t>I feel vaguely certain that she wants to be by my side, more than I want to be by hers...</t>
   </si>
   <si>
     <t>133</t>
   </si>
   <si>
+    <t>Ah, but more importantly, what did you want to talk about? …all of a sudden?</t>
+  </si>
+  <si>
     <t>Oh, but more importantly, what's this about a conversation? ...all of a sudden?</t>
   </si>
   <si>
@@ -515,141 +650,192 @@
     <t>137</t>
   </si>
   <si>
+    <t>Even though we can meet whenever since starting university.</t>
+  </si>
+  <si>
     <t>Even though we can see each other after university starts.</t>
   </si>
   <si>
-    <t>Even though we can see each other since starting university.</t>
-  </si>
-  <si>
     <t>139</t>
   </si>
   <si>
+    <t>Yeah…. The thing is…</t>
+  </si>
+  <si>
     <t>Yeah... Um, well...</t>
   </si>
   <si>
     <t>141</t>
   </si>
   <si>
+    <t>…Um, I've decided to make my debut…</t>
+  </si>
+  <si>
     <t>...Um, I, well, I'm going to debut...</t>
   </si>
   <si>
     <t>143</t>
   </si>
   <si>
+    <t>Huh…?</t>
+  </si>
+  <si>
     <t>Huh...?</t>
   </si>
   <si>
     <t>145</t>
   </si>
   <si>
+    <t>Do you know of Eiji Ogata? Of Ogata Productions. He's the one who debuted Rina Ogata.</t>
+  </si>
+  <si>
     <t>Do you know Eiji Ogata? Of Ogata Productions. He's the one who debuted Rina Ogata.</t>
   </si>
   <si>
     <t>147</t>
   </si>
   <si>
+    <t>Y-yeah…</t>
+  </si>
+  <si>
     <t>Oh, yeah...</t>
   </si>
   <si>
     <t>149</t>
   </si>
   <si>
+    <t>So, I've decided to make my debut with his help…</t>
+  </si>
+  <si>
     <t>From there, I've decided to debut under Mr. Ogata's production...</t>
   </si>
   <si>
     <t>151</t>
   </si>
   <si>
+    <t>Really…?</t>
+  </si>
+  <si>
     <t>Really...?</t>
   </si>
   <si>
     <t>153</t>
   </si>
   <si>
+    <t>Yeah…</t>
+  </si>
+  <si>
     <t>Yeah...</t>
   </si>
   <si>
     <t>155</t>
   </si>
   <si>
+    <t>Amazing…! That's amazing, Yuki!!</t>
+  </si>
+  <si>
     <t>That's amazing! That's amazing, Yuki!!</t>
   </si>
   <si>
     <t>157</t>
   </si>
   <si>
+    <t>…But, Yuki doesn't seem as excited as me….</t>
+  </si>
+  <si>
     <t>...but, Yuki doesn't seem as excited as me...</t>
   </si>
   <si>
-    <t>...but, Yuki, doesn't seem as excited as me...</t>
-  </si>
-  <si>
     <t>159</t>
   </si>
   <si>
+    <t>But, you know… …That's why, we might not be able to spend as much time together as before…</t>
+  </si>
+  <si>
     <t>But you know... ...that's why, from now on, there might not be much time for us to be together...</t>
   </si>
   <si>
-    <t>But you see... ...so, from now on, there might not be much time for us to be together...</t>
-  </si>
-  <si>
     <t>161</t>
   </si>
   <si>
+    <t>Ah…</t>
+  </si>
+  <si>
     <t>Ah...</t>
   </si>
   <si>
     <t>163</t>
   </si>
   <si>
+    <t>So that's it….</t>
+  </si>
+  <si>
     <t>So that's it...</t>
   </si>
   <si>
     <t>165</t>
   </si>
   <si>
+    <t>"My Yuki" is going to disappear…?</t>
+  </si>
+  <si>
     <t>"My Yuki" is going to disappear?</t>
   </si>
   <si>
     <t>167</t>
   </si>
   <si>
+    <t>But, you have to do your best. …after all, you've worked really hard for this, Yuki.</t>
+  </si>
+  <si>
     <t>But, you have to do your best. ...after all, Yuki, you've been working hard for this...</t>
   </si>
   <si>
-    <t>But, we have to do our best. ...after all, Yuki has been working hard for this...</t>
-  </si>
-  <si>
     <t>169</t>
   </si>
   <si>
     <t>171</t>
   </si>
   <si>
+    <t>I can't say that I won't feel lonely either…</t>
+  </si>
+  <si>
     <t>I'm not going to be completely lonely, but...</t>
   </si>
   <si>
     <t>173</t>
   </si>
   <si>
+    <t>But….</t>
+  </si>
+  <si>
     <t>but...</t>
   </si>
   <si>
     <t>175</t>
   </si>
   <si>
+    <t>But, do your best. I'll be cheering you on.</t>
+  </si>
+  <si>
     <t>But, do your best. I'll cheer you on.</t>
   </si>
   <si>
     <t>177</t>
   </si>
   <si>
+    <t>But…</t>
+  </si>
+  <si>
     <t>But...</t>
   </si>
   <si>
     <t>179</t>
   </si>
   <si>
+    <t>It's okay. …It might be tough, but let's make our dreams come true together.</t>
+  </si>
+  <si>
     <t>It's okay. ...it might be a little tough, but let's make our dreams come true together.</t>
   </si>
   <si>
@@ -662,19 +848,19 @@
     <t>183</t>
   </si>
   <si>
+    <t>Y-yeah!</t>
+  </si>
+  <si>
     <t>"Y-yeah!"</t>
   </si>
   <si>
-    <t>O-okay!</t>
-  </si>
-  <si>
     <t>185</t>
   </si>
   <si>
+    <t>And then, Yuki smiles.</t>
+  </si>
+  <si>
     <t>And then, she smiled.</t>
-  </si>
-  <si>
-    <t>And then, Yuki smiled.</t>
   </si>
 </sst>
 </file>
@@ -1096,7 +1282,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1158,7 +1346,7 @@
         <v>11</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>9</v>
@@ -1175,7 +1363,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
@@ -1187,10 +1375,10 @@
         <v>9</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>9</v>
@@ -1207,7 +1395,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
@@ -1219,10 +1407,10 @@
         <v>9</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>9</v>
@@ -1239,7 +1427,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>9</v>
@@ -1251,10 +1439,10 @@
         <v>9</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>9</v>
@@ -1271,7 +1459,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
@@ -1283,10 +1471,10 @@
         <v>9</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>9</v>
@@ -1303,7 +1491,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>9</v>
@@ -1315,10 +1503,10 @@
         <v>9</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>9</v>
@@ -1335,7 +1523,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
@@ -1347,10 +1535,10 @@
         <v>9</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>9</v>
@@ -1367,22 +1555,22 @@
         <v>9</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>9</v>
@@ -1399,7 +1587,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
@@ -1411,10 +1599,10 @@
         <v>9</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>9</v>
@@ -1431,7 +1619,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>9</v>
@@ -1443,10 +1631,10 @@
         <v>9</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>9</v>
@@ -1463,22 +1651,22 @@
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>9</v>
@@ -1495,22 +1683,22 @@
         <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>9</v>
@@ -1527,22 +1715,22 @@
         <v>9</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>9</v>
@@ -1559,22 +1747,22 @@
         <v>9</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>9</v>
@@ -1591,22 +1779,22 @@
         <v>9</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>9</v>
@@ -1623,22 +1811,22 @@
         <v>9</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>9</v>
@@ -1655,7 +1843,7 @@
         <v>9</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
@@ -1667,10 +1855,10 @@
         <v>9</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>9</v>
@@ -1687,7 +1875,7 @@
         <v>9</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>9</v>
@@ -1699,13 +1887,13 @@
         <v>9</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>9</v>
@@ -1719,7 +1907,7 @@
         <v>9</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
@@ -1731,10 +1919,10 @@
         <v>9</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>9</v>
@@ -1751,7 +1939,7 @@
         <v>9</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>9</v>
@@ -1763,10 +1951,10 @@
         <v>9</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>9</v>
@@ -1783,7 +1971,7 @@
         <v>9</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
@@ -1795,10 +1983,10 @@
         <v>9</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>9</v>
@@ -1815,7 +2003,7 @@
         <v>9</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>9</v>
@@ -1827,13 +2015,13 @@
         <v>9</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>9</v>
@@ -1847,7 +2035,7 @@
         <v>9</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
@@ -1859,10 +2047,10 @@
         <v>9</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>9</v>
@@ -1879,7 +2067,7 @@
         <v>9</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>9</v>
@@ -1891,10 +2079,10 @@
         <v>9</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>9</v>
@@ -1911,7 +2099,7 @@
         <v>9</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
@@ -1923,10 +2111,10 @@
         <v>9</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>9</v>
@@ -1943,7 +2131,7 @@
         <v>9</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>9</v>
@@ -1955,10 +2143,10 @@
         <v>9</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>9</v>
@@ -1975,22 +2163,22 @@
         <v>9</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>9</v>
@@ -2007,22 +2195,22 @@
         <v>9</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>9</v>
@@ -2039,7 +2227,7 @@
         <v>9</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
@@ -2051,10 +2239,10 @@
         <v>9</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>9</v>
@@ -2071,22 +2259,22 @@
         <v>9</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>9</v>
@@ -2103,22 +2291,22 @@
         <v>9</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>9</v>
@@ -2135,22 +2323,22 @@
         <v>9</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>9</v>
+        <v>106</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>9</v>
@@ -2167,7 +2355,7 @@
         <v>9</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
@@ -2179,10 +2367,10 @@
         <v>9</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>9</v>
+        <v>108</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>9</v>
@@ -2199,7 +2387,7 @@
         <v>9</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>9</v>
@@ -2211,10 +2399,10 @@
         <v>9</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>9</v>
+        <v>111</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>9</v>
@@ -2231,7 +2419,7 @@
         <v>9</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
@@ -2243,10 +2431,10 @@
         <v>9</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>9</v>
@@ -2263,22 +2451,22 @@
         <v>9</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>9</v>
@@ -2295,7 +2483,7 @@
         <v>9</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
@@ -2307,10 +2495,10 @@
         <v>9</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>9</v>
@@ -2327,7 +2515,7 @@
         <v>9</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>9</v>
@@ -2339,10 +2527,10 @@
         <v>9</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>9</v>
@@ -2359,7 +2547,7 @@
         <v>9</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
@@ -2371,10 +2559,10 @@
         <v>9</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>9</v>
@@ -2391,7 +2579,7 @@
         <v>9</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>9</v>
@@ -2403,10 +2591,10 @@
         <v>9</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="H41" s="5" t="s">
         <v>9</v>
@@ -2423,7 +2611,7 @@
         <v>9</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
@@ -2435,10 +2623,10 @@
         <v>9</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>9</v>
@@ -2455,7 +2643,7 @@
         <v>9</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>9</v>
@@ -2467,10 +2655,10 @@
         <v>9</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>9</v>
+        <v>135</v>
       </c>
       <c r="H43" s="5" t="s">
         <v>9</v>
@@ -2487,22 +2675,22 @@
         <v>9</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>9</v>
@@ -2519,7 +2707,7 @@
         <v>9</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>9</v>
@@ -2531,10 +2719,10 @@
         <v>9</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>107</v>
+        <v>141</v>
       </c>
       <c r="H45" s="5" t="s">
         <v>9</v>
@@ -2551,22 +2739,22 @@
         <v>9</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>9</v>
@@ -2583,22 +2771,22 @@
         <v>9</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>9</v>
+        <v>146</v>
       </c>
       <c r="H47" s="5" t="s">
         <v>9</v>
@@ -2615,22 +2803,22 @@
         <v>9</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>9</v>
+        <v>148</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>9</v>
@@ -2647,7 +2835,7 @@
         <v>9</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>115</v>
+        <v>149</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>9</v>
@@ -2659,10 +2847,10 @@
         <v>9</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>116</v>
+        <v>150</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>9</v>
+        <v>151</v>
       </c>
       <c r="H49" s="5" t="s">
         <v>9</v>
@@ -2679,7 +2867,7 @@
         <v>9</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
@@ -2691,10 +2879,10 @@
         <v>9</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>9</v>
+        <v>154</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>9</v>
@@ -2711,7 +2899,7 @@
         <v>9</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>119</v>
+        <v>155</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>9</v>
@@ -2723,10 +2911,10 @@
         <v>9</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>120</v>
+        <v>156</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>9</v>
+        <v>157</v>
       </c>
       <c r="H51" s="5" t="s">
         <v>9</v>
@@ -2743,22 +2931,22 @@
         <v>9</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>121</v>
+        <v>158</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>122</v>
+        <v>159</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>9</v>
@@ -2775,7 +2963,7 @@
         <v>9</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>123</v>
+        <v>161</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>9</v>
@@ -2787,10 +2975,10 @@
         <v>9</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>124</v>
+        <v>162</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>9</v>
@@ -2807,7 +2995,7 @@
         <v>9</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
@@ -2819,10 +3007,10 @@
         <v>9</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>9</v>
@@ -2839,22 +3027,22 @@
         <v>9</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>9</v>
+        <v>168</v>
       </c>
       <c r="H55" s="5" t="s">
         <v>9</v>
@@ -2871,7 +3059,7 @@
         <v>9</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
@@ -2883,10 +3071,10 @@
         <v>9</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>9</v>
+        <v>171</v>
       </c>
       <c r="H56" s="3" t="s">
         <v>9</v>
@@ -2903,22 +3091,22 @@
         <v>9</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>9</v>
+        <v>174</v>
       </c>
       <c r="H57" s="5" t="s">
         <v>9</v>
@@ -2935,7 +3123,7 @@
         <v>9</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
@@ -2947,10 +3135,10 @@
         <v>9</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>137</v>
+        <v>177</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>9</v>
@@ -2967,7 +3155,7 @@
         <v>9</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>9</v>
@@ -2979,13 +3167,13 @@
         <v>9</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>9</v>
+        <v>181</v>
       </c>
       <c r="I59" s="5" t="s">
         <v>9</v>
@@ -2999,7 +3187,7 @@
         <v>9</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>141</v>
+        <v>182</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
@@ -3011,13 +3199,13 @@
         <v>9</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>142</v>
+        <v>183</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>143</v>
+        <v>184</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>9</v>
+        <v>185</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>9</v>
@@ -3031,22 +3219,22 @@
         <v>9</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>145</v>
+        <v>187</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>146</v>
+        <v>187</v>
       </c>
       <c r="H61" s="5" t="s">
         <v>9</v>
@@ -3063,22 +3251,22 @@
         <v>9</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>147</v>
+        <v>188</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>148</v>
+        <v>189</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>9</v>
+        <v>190</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>9</v>
@@ -3095,7 +3283,7 @@
         <v>9</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>149</v>
+        <v>191</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>9</v>
@@ -3107,10 +3295,10 @@
         <v>9</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>150</v>
+        <v>192</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>151</v>
+        <v>193</v>
       </c>
       <c r="H63" s="5" t="s">
         <v>9</v>
@@ -3127,7 +3315,7 @@
         <v>9</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>152</v>
+        <v>194</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
@@ -3139,10 +3327,10 @@
         <v>9</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>153</v>
+        <v>195</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>9</v>
+        <v>195</v>
       </c>
       <c r="H64" s="3" t="s">
         <v>9</v>
@@ -3159,7 +3347,7 @@
         <v>9</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>154</v>
+        <v>196</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>9</v>
@@ -3171,10 +3359,10 @@
         <v>9</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>155</v>
+        <v>197</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>9</v>
+        <v>198</v>
       </c>
       <c r="H65" s="5" t="s">
         <v>9</v>
@@ -3191,7 +3379,7 @@
         <v>9</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>156</v>
+        <v>199</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
@@ -3203,10 +3391,10 @@
         <v>9</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>157</v>
+        <v>200</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>158</v>
+        <v>201</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>9</v>
@@ -3223,7 +3411,7 @@
         <v>9</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>159</v>
+        <v>202</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>9</v>
@@ -3235,10 +3423,10 @@
         <v>9</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>160</v>
+        <v>203</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>9</v>
+        <v>204</v>
       </c>
       <c r="H67" s="5" t="s">
         <v>9</v>
@@ -3255,22 +3443,22 @@
         <v>9</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>161</v>
+        <v>205</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>162</v>
+        <v>206</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>9</v>
+        <v>207</v>
       </c>
       <c r="H68" s="3" t="s">
         <v>9</v>
@@ -3287,7 +3475,7 @@
         <v>9</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>163</v>
+        <v>208</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>9</v>
@@ -3299,10 +3487,10 @@
         <v>9</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>164</v>
+        <v>209</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="H69" s="5" t="s">
         <v>9</v>
@@ -3319,7 +3507,7 @@
         <v>9</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>165</v>
+        <v>210</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
@@ -3331,10 +3519,10 @@
         <v>9</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>166</v>
+        <v>211</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>167</v>
+        <v>212</v>
       </c>
       <c r="H70" s="3" t="s">
         <v>9</v>
@@ -3351,22 +3539,22 @@
         <v>9</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>168</v>
+        <v>213</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>169</v>
+        <v>214</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>9</v>
+        <v>215</v>
       </c>
       <c r="H71" s="5" t="s">
         <v>9</v>
@@ -3383,22 +3571,22 @@
         <v>9</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>171</v>
+        <v>217</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>9</v>
+        <v>218</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>9</v>
@@ -3415,22 +3603,22 @@
         <v>9</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>172</v>
+        <v>219</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>173</v>
+        <v>220</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>9</v>
+        <v>221</v>
       </c>
       <c r="H73" s="5" t="s">
         <v>9</v>
@@ -3447,22 +3635,22 @@
         <v>9</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>174</v>
+        <v>222</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>175</v>
+        <v>223</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>9</v>
+        <v>224</v>
       </c>
       <c r="H74" s="3" t="s">
         <v>9</v>
@@ -3479,22 +3667,22 @@
         <v>9</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>176</v>
+        <v>225</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>177</v>
+        <v>226</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>177</v>
+        <v>227</v>
       </c>
       <c r="H75" s="5" t="s">
         <v>9</v>
@@ -3511,22 +3699,22 @@
         <v>9</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>178</v>
+        <v>228</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>179</v>
+        <v>229</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>9</v>
+        <v>230</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>9</v>
@@ -3543,22 +3731,22 @@
         <v>9</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>180</v>
+        <v>231</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>181</v>
+        <v>232</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>9</v>
+        <v>233</v>
       </c>
       <c r="H77" s="5" t="s">
         <v>9</v>
@@ -3575,22 +3763,22 @@
         <v>9</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>182</v>
+        <v>234</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>183</v>
+        <v>235</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>9</v>
+        <v>236</v>
       </c>
       <c r="H78" s="3" t="s">
         <v>9</v>
@@ -3607,22 +3795,22 @@
         <v>9</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>184</v>
+        <v>237</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>185</v>
+        <v>238</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>9</v>
+        <v>239</v>
       </c>
       <c r="H79" s="5" t="s">
         <v>9</v>
@@ -3639,7 +3827,7 @@
         <v>9</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
@@ -3651,10 +3839,10 @@
         <v>9</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>188</v>
+        <v>242</v>
       </c>
       <c r="H80" s="3" t="s">
         <v>9</v>
@@ -3671,22 +3859,22 @@
         <v>9</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>189</v>
+        <v>243</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>190</v>
+        <v>244</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>191</v>
+        <v>245</v>
       </c>
       <c r="H81" s="5" t="s">
         <v>9</v>
@@ -3703,22 +3891,22 @@
         <v>9</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>192</v>
+        <v>246</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>193</v>
+        <v>247</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>9</v>
+        <v>248</v>
       </c>
       <c r="H82" s="3" t="s">
         <v>9</v>
@@ -3735,7 +3923,7 @@
         <v>9</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>194</v>
+        <v>249</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>9</v>
@@ -3747,10 +3935,10 @@
         <v>9</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>195</v>
+        <v>250</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>9</v>
+        <v>251</v>
       </c>
       <c r="H83" s="5" t="s">
         <v>9</v>
@@ -3767,7 +3955,7 @@
         <v>9</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>196</v>
+        <v>252</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
@@ -3779,10 +3967,10 @@
         <v>9</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>197</v>
+        <v>253</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>9</v>
+        <v>254</v>
       </c>
       <c r="H84" s="3" t="s">
         <v>9</v>
@@ -3799,22 +3987,22 @@
         <v>9</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>198</v>
+        <v>255</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E85" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>199</v>
+        <v>256</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="H85" s="5" t="s">
         <v>9</v>
@@ -3831,22 +4019,22 @@
         <v>9</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>201</v>
+        <v>258</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>183</v>
+        <v>235</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>9</v>
+        <v>236</v>
       </c>
       <c r="H86" s="3" t="s">
         <v>9</v>
@@ -3863,7 +4051,7 @@
         <v>9</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>202</v>
+        <v>259</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>9</v>
@@ -3875,10 +4063,10 @@
         <v>9</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>203</v>
+        <v>260</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>9</v>
+        <v>261</v>
       </c>
       <c r="H87" s="5" t="s">
         <v>9</v>
@@ -3895,7 +4083,7 @@
         <v>9</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>204</v>
+        <v>262</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
@@ -3907,10 +4095,10 @@
         <v>9</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>205</v>
+        <v>263</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>9</v>
+        <v>264</v>
       </c>
       <c r="H88" s="3" t="s">
         <v>9</v>
@@ -3927,22 +4115,22 @@
         <v>9</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>206</v>
+        <v>265</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>207</v>
+        <v>266</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>9</v>
+        <v>267</v>
       </c>
       <c r="H89" s="5" t="s">
         <v>9</v>
@@ -3959,22 +4147,22 @@
         <v>9</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>208</v>
+        <v>268</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>9</v>
+        <v>270</v>
       </c>
       <c r="H90" s="3" t="s">
         <v>9</v>
@@ -3991,22 +4179,22 @@
         <v>9</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>210</v>
+        <v>271</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>211</v>
+        <v>272</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>9</v>
+        <v>273</v>
       </c>
       <c r="H91" s="5" t="s">
         <v>9</v>
@@ -4023,7 +4211,7 @@
         <v>9</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>212</v>
+        <v>274</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
@@ -4035,10 +4223,10 @@
         <v>9</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>213</v>
+        <v>275</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>9</v>
+        <v>275</v>
       </c>
       <c r="H92" s="3" t="s">
         <v>9</v>
@@ -4055,22 +4243,22 @@
         <v>9</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>214</v>
+        <v>276</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E93" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>215</v>
+        <v>277</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>216</v>
+        <v>278</v>
       </c>
       <c r="H93" s="5" t="s">
         <v>9</v>
@@ -4087,7 +4275,7 @@
         <v>9</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>217</v>
+        <v>279</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
@@ -4099,10 +4287,10 @@
         <v>9</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>218</v>
+        <v>280</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>219</v>
+        <v>281</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>9</v>
